--- a/src/main/resources/gsis/excel/jgAtitle/a03.xlsx
+++ b/src/main/resources/gsis/excel/jgAtitle/a03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangjinhyeog/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D525E3B4-6998-2448-A81F-127A47BD0B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32ED20CA-0783-564F-82A6-9092D0483231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36040" yWindow="1960" windowWidth="30360" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40160" yWindow="2020" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-5" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="53">
   <si>
     <t>년도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>64,62</t>
+  </si>
+  <si>
     <t>전체</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -144,6 +147,118 @@
   </si>
   <si>
     <t>80세이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>63.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -245,10 +360,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -575,13 +690,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="16" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="9.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
@@ -591,58 +712,58 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -1139,6 +1260,1246 @@
       </c>
       <c r="T9" s="4">
         <v>75.400000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="4">
+        <v>641597</v>
+      </c>
+      <c r="D10" s="4">
+        <v>30426</v>
+      </c>
+      <c r="E10" s="4">
+        <v>33832</v>
+      </c>
+      <c r="F10" s="4">
+        <v>33859</v>
+      </c>
+      <c r="G10" s="4">
+        <v>41882</v>
+      </c>
+      <c r="H10" s="4">
+        <v>43143</v>
+      </c>
+      <c r="I10" s="4">
+        <v>33430</v>
+      </c>
+      <c r="J10" s="4">
+        <v>38891</v>
+      </c>
+      <c r="K10" s="4">
+        <v>48018</v>
+      </c>
+      <c r="L10" s="4">
+        <v>53897</v>
+      </c>
+      <c r="M10" s="4">
+        <v>58533</v>
+      </c>
+      <c r="N10" s="4">
+        <v>52169</v>
+      </c>
+      <c r="O10" s="4">
+        <v>48779</v>
+      </c>
+      <c r="P10" s="4">
+        <v>35549</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>26425</v>
+      </c>
+      <c r="R10" s="4">
+        <v>22119</v>
+      </c>
+      <c r="S10" s="4">
+        <v>18575</v>
+      </c>
+      <c r="T10" s="4">
+        <v>22070</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4">
+        <v>319052</v>
+      </c>
+      <c r="D11" s="4">
+        <v>14825</v>
+      </c>
+      <c r="E11" s="4">
+        <v>16361</v>
+      </c>
+      <c r="F11" s="4">
+        <v>15912</v>
+      </c>
+      <c r="G11" s="4">
+        <v>20010</v>
+      </c>
+      <c r="H11" s="4">
+        <v>20166</v>
+      </c>
+      <c r="I11" s="4">
+        <v>16065</v>
+      </c>
+      <c r="J11" s="4">
+        <v>19114</v>
+      </c>
+      <c r="K11" s="4">
+        <v>23586</v>
+      </c>
+      <c r="L11" s="4">
+        <v>25749</v>
+      </c>
+      <c r="M11" s="4">
+        <v>27924</v>
+      </c>
+      <c r="N11" s="4">
+        <v>24686</v>
+      </c>
+      <c r="O11" s="4">
+        <v>23884</v>
+      </c>
+      <c r="P11" s="4">
+        <v>17959</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>13714</v>
+      </c>
+      <c r="R11" s="4">
+        <v>11896</v>
+      </c>
+      <c r="S11" s="4">
+        <v>11023</v>
+      </c>
+      <c r="T11" s="4">
+        <v>16178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="4">
+        <v>322545</v>
+      </c>
+      <c r="D12" s="4">
+        <v>15601</v>
+      </c>
+      <c r="E12" s="4">
+        <v>17471</v>
+      </c>
+      <c r="F12" s="4">
+        <v>17947</v>
+      </c>
+      <c r="G12" s="4">
+        <v>21872</v>
+      </c>
+      <c r="H12" s="4">
+        <v>22977</v>
+      </c>
+      <c r="I12" s="4">
+        <v>17365</v>
+      </c>
+      <c r="J12" s="4">
+        <v>19777</v>
+      </c>
+      <c r="K12" s="4">
+        <v>24432</v>
+      </c>
+      <c r="L12" s="4">
+        <v>28148</v>
+      </c>
+      <c r="M12" s="4">
+        <v>30609</v>
+      </c>
+      <c r="N12" s="4">
+        <v>27483</v>
+      </c>
+      <c r="O12" s="4">
+        <v>24895</v>
+      </c>
+      <c r="P12" s="4">
+        <v>17590</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>12711</v>
+      </c>
+      <c r="R12" s="4">
+        <v>10223</v>
+      </c>
+      <c r="S12" s="4">
+        <v>7552</v>
+      </c>
+      <c r="T12" s="4">
+        <v>5892</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>49.7</v>
+      </c>
+      <c r="D13" s="4">
+        <v>48.7</v>
+      </c>
+      <c r="E13" s="4">
+        <v>48.4</v>
+      </c>
+      <c r="F13" s="4">
+        <v>47</v>
+      </c>
+      <c r="G13" s="4">
+        <v>47.8</v>
+      </c>
+      <c r="H13" s="4">
+        <v>46.7</v>
+      </c>
+      <c r="I13" s="4">
+        <v>48.1</v>
+      </c>
+      <c r="J13" s="4">
+        <v>49.1</v>
+      </c>
+      <c r="K13" s="4">
+        <v>49.1</v>
+      </c>
+      <c r="L13" s="4">
+        <v>47.8</v>
+      </c>
+      <c r="M13" s="4">
+        <v>47.7</v>
+      </c>
+      <c r="N13" s="4">
+        <v>47.3</v>
+      </c>
+      <c r="O13" s="4">
+        <v>49</v>
+      </c>
+      <c r="P13" s="4">
+        <v>50.5</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>51.9</v>
+      </c>
+      <c r="R13" s="4">
+        <v>53.8</v>
+      </c>
+      <c r="S13" s="4">
+        <v>59.3</v>
+      </c>
+      <c r="T13" s="4">
+        <v>73.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4">
+        <v>656013</v>
+      </c>
+      <c r="D14" s="4">
+        <v>29579</v>
+      </c>
+      <c r="E14" s="4">
+        <v>34544</v>
+      </c>
+      <c r="F14" s="4">
+        <v>34559</v>
+      </c>
+      <c r="G14" s="4">
+        <v>40390</v>
+      </c>
+      <c r="H14" s="4">
+        <v>43700</v>
+      </c>
+      <c r="I14" s="4">
+        <v>35768</v>
+      </c>
+      <c r="J14" s="4">
+        <v>37379</v>
+      </c>
+      <c r="K14" s="4">
+        <v>50035</v>
+      </c>
+      <c r="L14" s="4">
+        <v>53288</v>
+      </c>
+      <c r="M14" s="4">
+        <v>61034</v>
+      </c>
+      <c r="N14" s="4">
+        <v>53522</v>
+      </c>
+      <c r="O14" s="4">
+        <v>50954</v>
+      </c>
+      <c r="P14" s="4">
+        <v>38446</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>27179</v>
+      </c>
+      <c r="R14" s="4">
+        <v>22779</v>
+      </c>
+      <c r="S14" s="4">
+        <v>19486</v>
+      </c>
+      <c r="T14" s="4">
+        <v>23371</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="4">
+        <v>325708</v>
+      </c>
+      <c r="D15" s="4">
+        <v>14353</v>
+      </c>
+      <c r="E15" s="4">
+        <v>16731</v>
+      </c>
+      <c r="F15" s="4">
+        <v>16437</v>
+      </c>
+      <c r="G15" s="4">
+        <v>19246</v>
+      </c>
+      <c r="H15" s="4">
+        <v>20579</v>
+      </c>
+      <c r="I15" s="4">
+        <v>16941</v>
+      </c>
+      <c r="J15" s="4">
+        <v>18290</v>
+      </c>
+      <c r="K15" s="4">
+        <v>24594</v>
+      </c>
+      <c r="L15" s="4">
+        <v>25501</v>
+      </c>
+      <c r="M15" s="4">
+        <v>29044</v>
+      </c>
+      <c r="N15" s="4">
+        <v>25316</v>
+      </c>
+      <c r="O15" s="4">
+        <v>24784</v>
+      </c>
+      <c r="P15" s="4">
+        <v>19342</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>14017</v>
+      </c>
+      <c r="R15" s="4">
+        <v>12190</v>
+      </c>
+      <c r="S15" s="4">
+        <v>11434</v>
+      </c>
+      <c r="T15" s="4">
+        <v>16909</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="4">
+        <v>330305</v>
+      </c>
+      <c r="D16" s="4">
+        <v>15226</v>
+      </c>
+      <c r="E16" s="4">
+        <v>17813</v>
+      </c>
+      <c r="F16" s="4">
+        <v>18122</v>
+      </c>
+      <c r="G16" s="4">
+        <v>21144</v>
+      </c>
+      <c r="H16" s="4">
+        <v>23121</v>
+      </c>
+      <c r="I16" s="4">
+        <v>18827</v>
+      </c>
+      <c r="J16" s="4">
+        <v>19089</v>
+      </c>
+      <c r="K16" s="4">
+        <v>25441</v>
+      </c>
+      <c r="L16" s="4">
+        <v>27787</v>
+      </c>
+      <c r="M16" s="4">
+        <v>31990</v>
+      </c>
+      <c r="N16" s="4">
+        <v>28206</v>
+      </c>
+      <c r="O16" s="4">
+        <v>26170</v>
+      </c>
+      <c r="P16" s="4">
+        <v>19104</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>13162</v>
+      </c>
+      <c r="R16" s="4">
+        <v>10589</v>
+      </c>
+      <c r="S16" s="4">
+        <v>8052</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="4">
+        <v>49.6</v>
+      </c>
+      <c r="D17" s="4">
+        <v>48</v>
+      </c>
+      <c r="E17" s="4">
+        <v>48.4</v>
+      </c>
+      <c r="F17" s="4">
+        <v>47.6</v>
+      </c>
+      <c r="G17" s="4">
+        <v>47.7</v>
+      </c>
+      <c r="H17" s="4">
+        <v>47.1</v>
+      </c>
+      <c r="I17" s="4">
+        <v>47.4</v>
+      </c>
+      <c r="J17" s="4">
+        <v>48.9</v>
+      </c>
+      <c r="K17" s="4">
+        <v>49.2</v>
+      </c>
+      <c r="L17" s="4">
+        <v>47.9</v>
+      </c>
+      <c r="M17" s="4">
+        <v>47.6</v>
+      </c>
+      <c r="N17" s="4">
+        <v>47.3</v>
+      </c>
+      <c r="O17" s="4">
+        <v>48.6</v>
+      </c>
+      <c r="P17" s="4">
+        <v>50.3</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>51.6</v>
+      </c>
+      <c r="R17" s="4">
+        <v>53.5</v>
+      </c>
+      <c r="S17" s="4">
+        <v>58.7</v>
+      </c>
+      <c r="T17" s="4">
+        <v>72.400000000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="4">
+        <v>667064</v>
+      </c>
+      <c r="D18" s="4">
+        <v>28764</v>
+      </c>
+      <c r="E18" s="4">
+        <v>35100</v>
+      </c>
+      <c r="F18" s="4">
+        <v>34640</v>
+      </c>
+      <c r="G18" s="4">
+        <v>39188</v>
+      </c>
+      <c r="H18" s="4">
+        <v>43391</v>
+      </c>
+      <c r="I18" s="4">
+        <v>38344</v>
+      </c>
+      <c r="J18" s="4">
+        <v>36116</v>
+      </c>
+      <c r="K18" s="4">
+        <v>51670</v>
+      </c>
+      <c r="L18" s="4">
+        <v>51803</v>
+      </c>
+      <c r="M18" s="4">
+        <v>61796</v>
+      </c>
+      <c r="N18" s="4">
+        <v>55139</v>
+      </c>
+      <c r="O18" s="4">
+        <v>53114</v>
+      </c>
+      <c r="P18" s="4">
+        <v>42038</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>27324</v>
+      </c>
+      <c r="R18" s="4">
+        <v>23969</v>
+      </c>
+      <c r="S18" s="4">
+        <v>19815</v>
+      </c>
+      <c r="T18" s="4">
+        <v>24853</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="4">
+        <v>331368</v>
+      </c>
+      <c r="D19" s="4">
+        <v>13917</v>
+      </c>
+      <c r="E19" s="4">
+        <v>17023</v>
+      </c>
+      <c r="F19" s="4">
+        <v>16600</v>
+      </c>
+      <c r="G19" s="4">
+        <v>18682</v>
+      </c>
+      <c r="H19" s="4">
+        <v>20361</v>
+      </c>
+      <c r="I19" s="4">
+        <v>18267</v>
+      </c>
+      <c r="J19" s="4">
+        <v>17650</v>
+      </c>
+      <c r="K19" s="4">
+        <v>25585</v>
+      </c>
+      <c r="L19" s="4">
+        <v>24795</v>
+      </c>
+      <c r="M19" s="4">
+        <v>29532</v>
+      </c>
+      <c r="N19" s="4">
+        <v>26057</v>
+      </c>
+      <c r="O19" s="4">
+        <v>25889</v>
+      </c>
+      <c r="P19" s="4">
+        <v>20920</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>14202</v>
+      </c>
+      <c r="R19" s="4">
+        <v>12681</v>
+      </c>
+      <c r="S19" s="4">
+        <v>11482</v>
+      </c>
+      <c r="T19" s="4">
+        <v>17725</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="4">
+        <v>335696</v>
+      </c>
+      <c r="D20" s="4">
+        <v>14847</v>
+      </c>
+      <c r="E20" s="4">
+        <v>18077</v>
+      </c>
+      <c r="F20" s="4">
+        <v>18040</v>
+      </c>
+      <c r="G20" s="4">
+        <v>20506</v>
+      </c>
+      <c r="H20" s="4">
+        <v>23030</v>
+      </c>
+      <c r="I20" s="4">
+        <v>20077</v>
+      </c>
+      <c r="J20" s="4">
+        <v>18466</v>
+      </c>
+      <c r="K20" s="4">
+        <v>26085</v>
+      </c>
+      <c r="L20" s="4">
+        <v>27008</v>
+      </c>
+      <c r="M20" s="4">
+        <v>32264</v>
+      </c>
+      <c r="N20" s="4">
+        <v>29082</v>
+      </c>
+      <c r="O20" s="4">
+        <v>27225</v>
+      </c>
+      <c r="P20" s="4">
+        <v>21118</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>13122</v>
+      </c>
+      <c r="R20" s="4">
+        <v>11288</v>
+      </c>
+      <c r="S20" s="4">
+        <v>8333</v>
+      </c>
+      <c r="T20" s="4">
+        <v>7128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4">
+        <v>49.7</v>
+      </c>
+      <c r="D21" s="4">
+        <v>48.4</v>
+      </c>
+      <c r="E21" s="4">
+        <v>48.5</v>
+      </c>
+      <c r="F21" s="4">
+        <v>47.9</v>
+      </c>
+      <c r="G21" s="4">
+        <v>47.7</v>
+      </c>
+      <c r="H21" s="4">
+        <v>46.9</v>
+      </c>
+      <c r="I21" s="4">
+        <v>47.6</v>
+      </c>
+      <c r="J21" s="4">
+        <v>48.9</v>
+      </c>
+      <c r="K21" s="4">
+        <v>49.5</v>
+      </c>
+      <c r="L21" s="4">
+        <v>47.9</v>
+      </c>
+      <c r="M21" s="4">
+        <v>47.8</v>
+      </c>
+      <c r="N21" s="4">
+        <v>47.3</v>
+      </c>
+      <c r="O21" s="4">
+        <v>48.7</v>
+      </c>
+      <c r="P21" s="4">
+        <v>49.8</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>52</v>
+      </c>
+      <c r="R21" s="4">
+        <v>52.9</v>
+      </c>
+      <c r="S21" s="4">
+        <v>57.9</v>
+      </c>
+      <c r="T21" s="4">
+        <v>71.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="4">
+        <v>670989</v>
+      </c>
+      <c r="D22" s="4">
+        <v>27180</v>
+      </c>
+      <c r="E22" s="4">
+        <v>35106</v>
+      </c>
+      <c r="F22" s="4">
+        <v>34603</v>
+      </c>
+      <c r="G22" s="4">
+        <v>37524</v>
+      </c>
+      <c r="H22" s="4">
+        <v>42061</v>
+      </c>
+      <c r="I22" s="4">
+        <v>40094</v>
+      </c>
+      <c r="J22" s="4">
+        <v>35186</v>
+      </c>
+      <c r="K22" s="4">
+        <v>49644</v>
+      </c>
+      <c r="L22" s="4">
+        <v>51325</v>
+      </c>
+      <c r="M22" s="4">
+        <v>61766</v>
+      </c>
+      <c r="N22" s="4">
+        <v>57221</v>
+      </c>
+      <c r="O22" s="4">
+        <v>53538</v>
+      </c>
+      <c r="P22" s="4">
+        <v>45344</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>29081</v>
+      </c>
+      <c r="R22" s="4">
+        <v>24618</v>
+      </c>
+      <c r="S22" s="4">
+        <v>19962</v>
+      </c>
+      <c r="T22" s="4">
+        <v>14466</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="4">
+        <v>333644</v>
+      </c>
+      <c r="D23" s="4">
+        <v>13172</v>
+      </c>
+      <c r="E23" s="4">
+        <v>17082</v>
+      </c>
+      <c r="F23" s="4">
+        <v>16594</v>
+      </c>
+      <c r="G23" s="4">
+        <v>17825</v>
+      </c>
+      <c r="H23" s="4">
+        <v>19790</v>
+      </c>
+      <c r="I23" s="4">
+        <v>18913</v>
+      </c>
+      <c r="J23" s="4">
+        <v>17266</v>
+      </c>
+      <c r="K23" s="4">
+        <v>24492</v>
+      </c>
+      <c r="L23" s="4">
+        <v>25001</v>
+      </c>
+      <c r="M23" s="4">
+        <v>29527</v>
+      </c>
+      <c r="N23" s="4">
+        <v>27059</v>
+      </c>
+      <c r="O23" s="4">
+        <v>26010</v>
+      </c>
+      <c r="P23" s="4">
+        <v>22634</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>15037</v>
+      </c>
+      <c r="R23" s="4">
+        <v>13055</v>
+      </c>
+      <c r="S23" s="4">
+        <v>11416</v>
+      </c>
+      <c r="T23" s="4">
+        <v>9243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="4">
+        <v>337345</v>
+      </c>
+      <c r="D24" s="4">
+        <v>14008</v>
+      </c>
+      <c r="E24" s="4">
+        <v>18024</v>
+      </c>
+      <c r="F24" s="4">
+        <v>18009</v>
+      </c>
+      <c r="G24" s="4">
+        <v>19699</v>
+      </c>
+      <c r="H24" s="4">
+        <v>22271</v>
+      </c>
+      <c r="I24" s="4">
+        <v>21181</v>
+      </c>
+      <c r="J24" s="4">
+        <v>17920</v>
+      </c>
+      <c r="K24" s="4">
+        <v>25152</v>
+      </c>
+      <c r="L24" s="4">
+        <v>26324</v>
+      </c>
+      <c r="M24" s="4">
+        <v>32239</v>
+      </c>
+      <c r="N24" s="4">
+        <v>30162</v>
+      </c>
+      <c r="O24" s="4">
+        <v>27528</v>
+      </c>
+      <c r="P24" s="4">
+        <v>22710</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>14044</v>
+      </c>
+      <c r="R24" s="4">
+        <v>11563</v>
+      </c>
+      <c r="S24" s="4">
+        <v>8546</v>
+      </c>
+      <c r="T24" s="4">
+        <v>5223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="5">
+        <v>2020</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="4">
+        <v>671316</v>
+      </c>
+      <c r="D26" s="4">
+        <v>26128</v>
+      </c>
+      <c r="E26" s="4">
+        <v>35316</v>
+      </c>
+      <c r="F26" s="4">
+        <v>34762</v>
+      </c>
+      <c r="G26" s="4">
+        <v>36138</v>
+      </c>
+      <c r="H26" s="4">
+        <v>41591</v>
+      </c>
+      <c r="I26" s="4">
+        <v>40084</v>
+      </c>
+      <c r="J26" s="4">
+        <v>35160</v>
+      </c>
+      <c r="K26" s="4">
+        <v>48474</v>
+      </c>
+      <c r="L26" s="4">
+        <v>51475</v>
+      </c>
+      <c r="M26" s="4">
+        <v>61186</v>
+      </c>
+      <c r="N26" s="4">
+        <v>58465</v>
+      </c>
+      <c r="O26" s="4">
+        <v>53108</v>
+      </c>
+      <c r="P26" s="4">
+        <v>45944</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>31078</v>
+      </c>
+      <c r="R26" s="4">
+        <v>24749</v>
+      </c>
+      <c r="S26" s="4">
+        <v>20234</v>
+      </c>
+      <c r="T26" s="4">
+        <v>24724</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="5">
+        <v>2020</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="4">
+        <v>333973</v>
+      </c>
+      <c r="D27" s="4">
+        <v>12617</v>
+      </c>
+      <c r="E27" s="4">
+        <v>17260</v>
+      </c>
+      <c r="F27" s="4">
+        <v>16655</v>
+      </c>
+      <c r="G27" s="4">
+        <v>17140</v>
+      </c>
+      <c r="H27" s="4">
+        <v>19409</v>
+      </c>
+      <c r="I27" s="4">
+        <v>18958</v>
+      </c>
+      <c r="J27" s="4">
+        <v>17284</v>
+      </c>
+      <c r="K27" s="4">
+        <v>24027</v>
+      </c>
+      <c r="L27" s="4">
+        <v>25131</v>
+      </c>
+      <c r="M27" s="4">
+        <v>29328</v>
+      </c>
+      <c r="N27" s="4">
+        <v>27727</v>
+      </c>
+      <c r="O27" s="4">
+        <v>25770</v>
+      </c>
+      <c r="P27" s="4">
+        <v>22855</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>15996</v>
+      </c>
+      <c r="R27" s="4">
+        <v>13154</v>
+      </c>
+      <c r="S27" s="4">
+        <v>11515</v>
+      </c>
+      <c r="T27" s="4">
+        <v>19417</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="5">
+        <v>2020</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="4">
+        <v>337343</v>
+      </c>
+      <c r="D28" s="4">
+        <v>13511</v>
+      </c>
+      <c r="E28" s="4">
+        <v>18056</v>
+      </c>
+      <c r="F28" s="4">
+        <v>18107</v>
+      </c>
+      <c r="G28" s="4">
+        <v>18998</v>
+      </c>
+      <c r="H28" s="4">
+        <v>22182</v>
+      </c>
+      <c r="I28" s="4">
+        <v>21126</v>
+      </c>
+      <c r="J28" s="4">
+        <v>17876</v>
+      </c>
+      <c r="K28" s="4">
+        <v>24447</v>
+      </c>
+      <c r="L28" s="4">
+        <v>26344</v>
+      </c>
+      <c r="M28" s="4">
+        <v>31858</v>
+      </c>
+      <c r="N28" s="4">
+        <v>30738</v>
+      </c>
+      <c r="O28" s="4">
+        <v>27338</v>
+      </c>
+      <c r="P28" s="4">
+        <v>23089</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>15082</v>
+      </c>
+      <c r="R28" s="4">
+        <v>11595</v>
+      </c>
+      <c r="S28" s="4">
+        <v>8719</v>
+      </c>
+      <c r="T28" s="4">
+        <v>8277</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="5">
+        <v>2020</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="T29" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
